--- a/Planung/TPD-B_PAP_Diagramm_NinoCataffo_B.xlsx
+++ b/Planung/TPD-B_PAP_Diagramm_NinoCataffo_B.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocataffo/Library/CloudStorage/SynologyDrive-Home/Dokumente/Studium/Semester 2 - SS23/Technisches Projekt/Pflichtenheft V1_0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninocataffo/Library/CloudStorage/SynologyDrive-Home/Dokumente/Studium/Semester 2 - SS23/Technisches Projekt/digital-hourglass-arduino/Planung/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3021FC32-9AE5-A849-B190-800D8D674DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E91C1-402B-9B41-B2D1-9519FC755AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="1" r:id="rId1"/>
@@ -376,7 +376,35 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="103">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2213,230 +2241,6 @@
       <numFmt numFmtId="166" formatCode="ddd"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2451,142 +2255,142 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9541016F-2A79-4D92-8320-74D038AE00F5}" name="Tabelle1" displayName="Tabelle1" ref="A10:AX25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9541016F-2A79-4D92-8320-74D038AE00F5}" name="Tabelle1" displayName="Tabelle1" ref="A10:AX25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="102" dataDxfId="101">
   <tableColumns count="50">
-    <tableColumn id="1" xr3:uid="{DB31D91A-9066-459A-9E0F-0DF5C7A41F2A}" name="Spalte1" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="2" xr3:uid="{DF612230-25C2-46B4-B7F0-A6DB3F8F798D}" name="Spalte2" headerRowDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{4648EB13-6381-4254-A8DB-933FF3430B42}" name="Spalte3" headerRowDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{CA1984A2-64DC-4530-8A1D-81D44E67B56F}" name="Spalte4" headerRowDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{438775E8-41E1-4D83-A9E1-06FC70685432}" name="Spalte5" headerRowDxfId="91" dataDxfId="90"/>
-    <tableColumn id="6" xr3:uid="{A69308F4-8ABA-4014-902A-E8D968091318}" name="Spalte6" headerRowDxfId="89" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{704C2470-8605-4D1A-879A-0C12170DE919}" name="Spalte7" headerRowDxfId="87" dataDxfId="86">
+    <tableColumn id="1" xr3:uid="{DB31D91A-9066-459A-9E0F-0DF5C7A41F2A}" name="Spalte1" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{DF612230-25C2-46B4-B7F0-A6DB3F8F798D}" name="Spalte2" headerRowDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{4648EB13-6381-4254-A8DB-933FF3430B42}" name="Spalte3" headerRowDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{CA1984A2-64DC-4530-8A1D-81D44E67B56F}" name="Spalte4" headerRowDxfId="96"/>
+    <tableColumn id="5" xr3:uid="{438775E8-41E1-4D83-A9E1-06FC70685432}" name="Spalte5" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{A69308F4-8ABA-4014-902A-E8D968091318}" name="Spalte6" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="7" xr3:uid="{704C2470-8605-4D1A-879A-0C12170DE919}" name="Spalte7" headerRowDxfId="91" dataDxfId="90">
       <calculatedColumnFormula array="1">IFERROR(_xlfn.IFS($D$4&lt;E10,0,$D$4&gt;F10,1),IFERROR(_xlfn.DAYS($D$4,E10)/_xlfn.DAYS(F10,E10),1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{318997D0-F0CB-4F61-842F-AE431E18D07A}" name="Spalte8" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{93F497A9-AE8C-407D-AA6C-77B70F32C05B}" name="Spalte9" headerRowDxfId="83" dataDxfId="82">
+    <tableColumn id="8" xr3:uid="{318997D0-F0CB-4F61-842F-AE431E18D07A}" name="Spalte8" headerRowDxfId="89" dataDxfId="88"/>
+    <tableColumn id="9" xr3:uid="{93F497A9-AE8C-407D-AA6C-77B70F32C05B}" name="Spalte9" headerRowDxfId="87" dataDxfId="86">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,I$7&gt;=$E10,I$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{A31D430E-B024-4F8B-8187-93F6767C176D}" name="Spalte10" headerRowDxfId="81" dataDxfId="80">
+    <tableColumn id="10" xr3:uid="{A31D430E-B024-4F8B-8187-93F6767C176D}" name="Spalte10" headerRowDxfId="85" dataDxfId="84">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,J$7&gt;=$E10,J$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6348BB38-D2C5-4E64-8415-3D2C82264E27}" name="Spalte11" headerRowDxfId="79" dataDxfId="78">
+    <tableColumn id="11" xr3:uid="{6348BB38-D2C5-4E64-8415-3D2C82264E27}" name="Spalte11" headerRowDxfId="83" dataDxfId="82">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,K$7&gt;=$E10,K$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{2F6C0219-1254-4B39-91F2-8BAF1226DCC4}" name="Spalte12" headerRowDxfId="77" dataDxfId="76">
+    <tableColumn id="12" xr3:uid="{2F6C0219-1254-4B39-91F2-8BAF1226DCC4}" name="Spalte12" headerRowDxfId="81" dataDxfId="80">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,L$7&gt;=$E10,L$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3F09DCD4-66AB-4CDC-B0C8-8290BB40B055}" name="Spalte13" headerRowDxfId="75" dataDxfId="74">
+    <tableColumn id="13" xr3:uid="{3F09DCD4-66AB-4CDC-B0C8-8290BB40B055}" name="Spalte13" headerRowDxfId="79" dataDxfId="78">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,M$7&gt;=$E10,M$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{E96DD4ED-A013-41A1-A536-EC12778CDCC9}" name="Spalte14" headerRowDxfId="73" dataDxfId="72">
+    <tableColumn id="14" xr3:uid="{E96DD4ED-A013-41A1-A536-EC12778CDCC9}" name="Spalte14" headerRowDxfId="77" dataDxfId="76">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,N$7&gt;=$E10,N$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{F2D33D1E-AE90-4528-BC2D-C7FBE08D4957}" name="Spalte15" headerRowDxfId="71" dataDxfId="70">
+    <tableColumn id="15" xr3:uid="{F2D33D1E-AE90-4528-BC2D-C7FBE08D4957}" name="Spalte15" headerRowDxfId="75" dataDxfId="74">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,O$7&gt;=$E10,O$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{C4FFCBB6-BDA7-453E-8C56-DBADA56271CB}" name="Spalte16" headerRowDxfId="69" dataDxfId="68">
+    <tableColumn id="16" xr3:uid="{C4FFCBB6-BDA7-453E-8C56-DBADA56271CB}" name="Spalte16" headerRowDxfId="73" dataDxfId="72">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,P$7&gt;=$E10,P$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{00CBF770-C945-4AF2-837C-547D04AB044C}" name="Spalte17" headerRowDxfId="67" dataDxfId="66">
+    <tableColumn id="17" xr3:uid="{00CBF770-C945-4AF2-837C-547D04AB044C}" name="Spalte17" headerRowDxfId="71" dataDxfId="70">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,Q$7&gt;=$E10,Q$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{EBD51643-0CA2-4A54-B749-2FCC8304F357}" name="Spalte18" headerRowDxfId="65" dataDxfId="64">
+    <tableColumn id="18" xr3:uid="{EBD51643-0CA2-4A54-B749-2FCC8304F357}" name="Spalte18" headerRowDxfId="69" dataDxfId="68">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,R$7&gt;=$E10,R$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{9E285050-9306-4605-BE3D-27E5EAFE4A4B}" name="Spalte19" headerRowDxfId="63" dataDxfId="62">
+    <tableColumn id="19" xr3:uid="{9E285050-9306-4605-BE3D-27E5EAFE4A4B}" name="Spalte19" headerRowDxfId="67" dataDxfId="66">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,S$7&gt;=$E10,S$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{4CBA1643-C3C3-4B3F-A5E2-35EC09D47B34}" name="Spalte20" headerRowDxfId="61" dataDxfId="60">
+    <tableColumn id="20" xr3:uid="{4CBA1643-C3C3-4B3F-A5E2-35EC09D47B34}" name="Spalte20" headerRowDxfId="65" dataDxfId="64">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,T$7&gt;=$E10,T$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{8E4D3CCF-A706-4AA0-A9DA-463179A916E4}" name="Spalte21" headerRowDxfId="59" dataDxfId="58">
+    <tableColumn id="21" xr3:uid="{8E4D3CCF-A706-4AA0-A9DA-463179A916E4}" name="Spalte21" headerRowDxfId="63" dataDxfId="62">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,U$7&gt;=$E10,U$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{66D9A50B-A47B-469E-8CA9-FB5E7330F447}" name="Spalte22" headerRowDxfId="57" dataDxfId="56">
+    <tableColumn id="22" xr3:uid="{66D9A50B-A47B-469E-8CA9-FB5E7330F447}" name="Spalte22" headerRowDxfId="61" dataDxfId="60">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,V$7&gt;=$E10,V$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{6B83CA54-B5DA-468C-A2A8-6E0C062E86B7}" name="Spalte23" headerRowDxfId="55" dataDxfId="54">
+    <tableColumn id="23" xr3:uid="{6B83CA54-B5DA-468C-A2A8-6E0C062E86B7}" name="Spalte23" headerRowDxfId="59" dataDxfId="58">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,W$7&gt;=$E10,W$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{BFCAC78F-542C-4A77-954E-80900D066BD9}" name="Spalte24" headerRowDxfId="53" dataDxfId="52">
+    <tableColumn id="24" xr3:uid="{BFCAC78F-542C-4A77-954E-80900D066BD9}" name="Spalte24" headerRowDxfId="57" dataDxfId="56">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,X$7&gt;=$E10,X$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{933B3CF8-7437-47D6-AA1E-EDC76B42164D}" name="Spalte25" headerRowDxfId="51" dataDxfId="50">
+    <tableColumn id="25" xr3:uid="{933B3CF8-7437-47D6-AA1E-EDC76B42164D}" name="Spalte25" headerRowDxfId="55" dataDxfId="54">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,Y$7&gt;=$E10,Y$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{943603AC-69BC-4507-A7F4-5366E166BE7E}" name="Spalte26" headerRowDxfId="49" dataDxfId="48">
+    <tableColumn id="26" xr3:uid="{943603AC-69BC-4507-A7F4-5366E166BE7E}" name="Spalte26" headerRowDxfId="53" dataDxfId="52">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,Z$7&gt;=$E10,Z$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{28EF627F-2F4C-445A-B976-27D7587E5C68}" name="Spalte27" headerRowDxfId="47" dataDxfId="46">
+    <tableColumn id="27" xr3:uid="{28EF627F-2F4C-445A-B976-27D7587E5C68}" name="Spalte27" headerRowDxfId="51" dataDxfId="50">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AA$7&gt;=$E10,AA$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{3FC99393-45F0-46E4-8D9E-4177FC6AFB1A}" name="Spalte28" headerRowDxfId="45" dataDxfId="44">
+    <tableColumn id="28" xr3:uid="{3FC99393-45F0-46E4-8D9E-4177FC6AFB1A}" name="Spalte28" headerRowDxfId="49" dataDxfId="48">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AB$7&gt;=$E10,AB$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{AE7ED92F-23A9-4394-9C9C-1858A38A07F1}" name="Spalte29" headerRowDxfId="43" dataDxfId="42">
+    <tableColumn id="29" xr3:uid="{AE7ED92F-23A9-4394-9C9C-1858A38A07F1}" name="Spalte29" headerRowDxfId="47" dataDxfId="46">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AC$7&gt;=$E10,AC$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{7FE27D83-85E2-48FE-B95B-676369DB2E97}" name="Spalte30" headerRowDxfId="41" dataDxfId="40">
+    <tableColumn id="30" xr3:uid="{7FE27D83-85E2-48FE-B95B-676369DB2E97}" name="Spalte30" headerRowDxfId="45" dataDxfId="44">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AD$7&gt;=$E10,AD$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{B24201BE-4394-4B97-AC52-48E41C907DF9}" name="Spalte31" headerRowDxfId="39" dataDxfId="38">
+    <tableColumn id="31" xr3:uid="{B24201BE-4394-4B97-AC52-48E41C907DF9}" name="Spalte31" headerRowDxfId="43" dataDxfId="42">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AE$7&gt;=$E10,AE$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{531C113D-40B7-4D50-BF47-D24D2E7B4E25}" name="Spalte32" headerRowDxfId="37" dataDxfId="36">
+    <tableColumn id="32" xr3:uid="{531C113D-40B7-4D50-BF47-D24D2E7B4E25}" name="Spalte32" headerRowDxfId="41" dataDxfId="40">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AF$7&gt;=$E10,AF$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{2B7CC24C-E79C-422F-84C0-C8BF0CF9620A}" name="Spalte33" headerRowDxfId="35" dataDxfId="34">
+    <tableColumn id="33" xr3:uid="{2B7CC24C-E79C-422F-84C0-C8BF0CF9620A}" name="Spalte33" headerRowDxfId="39" dataDxfId="38">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AG$7&gt;=$E10,AG$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{52FC869A-6D8E-48AD-9906-F043E40395F0}" name="Spalte34" headerRowDxfId="33" dataDxfId="32">
+    <tableColumn id="34" xr3:uid="{52FC869A-6D8E-48AD-9906-F043E40395F0}" name="Spalte34" headerRowDxfId="37" dataDxfId="36">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AH$7&gt;=$E10,AH$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{1160C8CA-08B3-485B-817E-C34B2D8F0F80}" name="Spalte35" headerRowDxfId="31" dataDxfId="30">
+    <tableColumn id="35" xr3:uid="{1160C8CA-08B3-485B-817E-C34B2D8F0F80}" name="Spalte35" headerRowDxfId="35" dataDxfId="34">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AI$7&gt;=$E10,AI$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{9AF44287-C5FF-485F-A2C2-490BE953FA28}" name="Spalte36" headerRowDxfId="29" dataDxfId="28">
+    <tableColumn id="36" xr3:uid="{9AF44287-C5FF-485F-A2C2-490BE953FA28}" name="Spalte36" headerRowDxfId="33" dataDxfId="32">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AJ$7&gt;=$E10,AJ$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{CEABF9D8-6BF9-425A-890D-2F181B2D8AA8}" name="Spalte37" headerRowDxfId="27" dataDxfId="26">
+    <tableColumn id="37" xr3:uid="{CEABF9D8-6BF9-425A-890D-2F181B2D8AA8}" name="Spalte37" headerRowDxfId="31" dataDxfId="30">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AK$7&gt;=$E10,AK$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{4ACA67BD-697F-4985-912E-487636B8D5FB}" name="Spalte38" headerRowDxfId="25" dataDxfId="24">
+    <tableColumn id="38" xr3:uid="{4ACA67BD-697F-4985-912E-487636B8D5FB}" name="Spalte38" headerRowDxfId="29" dataDxfId="28">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AL$7&gt;=$E10,AL$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{44078536-10B2-4C3A-BA63-BAED9E093128}" name="Spalte39" headerRowDxfId="23" dataDxfId="22">
+    <tableColumn id="39" xr3:uid="{44078536-10B2-4C3A-BA63-BAED9E093128}" name="Spalte39" headerRowDxfId="27" dataDxfId="26">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AM$7&gt;=$E10,AM$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{9B71E8EA-6014-4856-9726-DBDCE4B23F22}" name="Spalte40" headerRowDxfId="21" dataDxfId="20">
+    <tableColumn id="40" xr3:uid="{9B71E8EA-6014-4856-9726-DBDCE4B23F22}" name="Spalte40" headerRowDxfId="25" dataDxfId="24">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AN$7&gt;=$E10,AN$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{FD034ACA-0B0E-49E9-9357-977205FD0C87}" name="Spalte41" headerRowDxfId="19" dataDxfId="18">
+    <tableColumn id="41" xr3:uid="{FD034ACA-0B0E-49E9-9357-977205FD0C87}" name="Spalte41" headerRowDxfId="23" dataDxfId="22">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AO$7&gt;=$E10,AO$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{58AFBB18-8BC7-4E77-BE71-E0FB0290AD99}" name="Spalte42" headerRowDxfId="17" dataDxfId="16">
+    <tableColumn id="42" xr3:uid="{58AFBB18-8BC7-4E77-BE71-E0FB0290AD99}" name="Spalte42" headerRowDxfId="21" dataDxfId="20">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AP$7&gt;=$E10,AP$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{B74828B0-EB1E-414E-8496-BCEDE1E2742E}" name="Spalte43" headerRowDxfId="15" dataDxfId="14">
+    <tableColumn id="43" xr3:uid="{B74828B0-EB1E-414E-8496-BCEDE1E2742E}" name="Spalte43" headerRowDxfId="19" dataDxfId="18">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AQ$7&gt;=$E10,AQ$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{880B0D5F-131A-4BBD-B7BF-D609C5D9FE4A}" name="Spalte44" headerRowDxfId="13" dataDxfId="12">
+    <tableColumn id="44" xr3:uid="{880B0D5F-131A-4BBD-B7BF-D609C5D9FE4A}" name="Spalte44" headerRowDxfId="17" dataDxfId="16">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AR$7&gt;=$E10,AR$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="45" xr3:uid="{FE1A8C78-188F-4E8F-95DB-86FA8C1D3028}" name="Spalte45" headerRowDxfId="11" dataDxfId="10">
+    <tableColumn id="45" xr3:uid="{FE1A8C78-188F-4E8F-95DB-86FA8C1D3028}" name="Spalte45" headerRowDxfId="15" dataDxfId="14">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AS$7&gt;=$E10,AS$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="46" xr3:uid="{F551A3D6-782B-4F5C-A0F0-9EFADFAAEE03}" name="Spalte46" headerRowDxfId="9" dataDxfId="8">
+    <tableColumn id="46" xr3:uid="{F551A3D6-782B-4F5C-A0F0-9EFADFAAEE03}" name="Spalte46" headerRowDxfId="13" dataDxfId="12">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AT$7&gt;=$E10,AT$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="47" xr3:uid="{E5DB4D82-22E3-4382-B4DE-DA2AC5FAE5DE}" name="Spalte47" headerRowDxfId="7" dataDxfId="6">
+    <tableColumn id="47" xr3:uid="{E5DB4D82-22E3-4382-B4DE-DA2AC5FAE5DE}" name="Spalte47" headerRowDxfId="11" dataDxfId="10">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AU$7&gt;=$E10,AU$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="48" xr3:uid="{6F8AAF67-4C5E-4FAF-84F5-7D9558A2304A}" name="Spalte48" headerRowDxfId="5" dataDxfId="4">
+    <tableColumn id="48" xr3:uid="{6F8AAF67-4C5E-4FAF-84F5-7D9558A2304A}" name="Spalte48" headerRowDxfId="9" dataDxfId="8">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AV$7&gt;=$E10,AV$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="49" xr3:uid="{F1D35FA4-9BFF-45B7-A0D8-CF5B0CD03A55}" name="Spalte49" headerRowDxfId="3" dataDxfId="2">
+    <tableColumn id="49" xr3:uid="{F1D35FA4-9BFF-45B7-A0D8-CF5B0CD03A55}" name="Spalte49" headerRowDxfId="7" dataDxfId="6">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AW$7&gt;=$E10,AW$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="50" xr3:uid="{E069394E-7932-4B6B-AD89-7169D74A13CB}" name="Spalte50" headerRowDxfId="1" dataDxfId="0">
+    <tableColumn id="50" xr3:uid="{E069394E-7932-4B6B-AD89-7169D74A13CB}" name="Spalte50" headerRowDxfId="5" dataDxfId="4">
       <calculatedColumnFormula>IF(AND($D10&lt;&gt;0,AX$7&gt;=$E10,AX$7&lt;=$F10),"u","")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2860,7 +2664,7 @@
   <dimension ref="A1:BE44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="143" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="AD35" sqref="AD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2895,7 +2699,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <v>45027</v>
+        <v>45030</v>
       </c>
     </row>
     <row r="6" spans="1:57" x14ac:dyDescent="0.2">
@@ -4524,7 +4328,7 @@
         <v/>
       </c>
       <c r="K15" s="7" t="str">
-        <f t="shared" ref="K15:BE29" si="29">IF(AND($D15&lt;&gt;0,K$7&gt;=$E15,K$7&lt;=$F15),"u","")</f>
+        <f t="shared" ref="K15:BE25" si="29">IF(AND($D15&lt;&gt;0,K$7&gt;=$E15,K$7&lt;=$F15),"u","")</f>
         <v/>
       </c>
       <c r="L15" s="7" t="str">
@@ -4727,7 +4531,9 @@
         <f t="array" ref="G16">IFERROR(_xlfn.IFS($D$4&lt;E16,0,$D$4&gt;F16,1),IFERROR(_xlfn.DAYS($D$4,E16)/_xlfn.DAYS(F16,E16),1))</f>
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
       <c r="I16" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -4944,9 +4750,11 @@
       </c>
       <c r="G17" s="8" cm="1">
         <f t="array" ref="G17">IFERROR(_xlfn.IFS($D$4&lt;E17,0,$D$4&gt;F17,1),IFERROR(_xlfn.DAYS($D$4,E17)/_xlfn.DAYS(F17,E17),1))</f>
-        <v>0.35714285714285715</v>
-      </c>
-      <c r="H17" s="8"/>
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0</v>
+      </c>
       <c r="I17" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -5161,7 +4969,9 @@
         <f t="array" ref="G18">IFERROR(_xlfn.IFS($D$4&lt;E18,0,$D$4&gt;F18,1),IFERROR(_xlfn.DAYS($D$4,E18)/_xlfn.DAYS(F18,E18),1))</f>
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="8">
+        <v>0</v>
+      </c>
       <c r="I18" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -5374,9 +5184,11 @@
       </c>
       <c r="G19" s="8" cm="1">
         <f t="array" ref="G19">IFERROR(_xlfn.IFS($D$4&lt;E19,0,$D$4&gt;F19,1),IFERROR(_xlfn.DAYS($D$4,E19)/_xlfn.DAYS(F19,E19),1))</f>
-        <v>0.8</v>
-      </c>
-      <c r="H19" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H19" s="8">
+        <v>0</v>
+      </c>
       <c r="I19" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -5589,9 +5401,11 @@
       </c>
       <c r="G20" s="8" cm="1">
         <f t="array" ref="G20">IFERROR(_xlfn.IFS($D$4&lt;E20,0,$D$4&gt;F20,1),IFERROR(_xlfn.DAYS($D$4,E20)/_xlfn.DAYS(F20,E20),1))</f>
-        <v>0.8</v>
-      </c>
-      <c r="H20" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0</v>
+      </c>
       <c r="I20" s="7" t="str">
         <f t="shared" ref="I20:AN20" si="32">IF(AND($D20&lt;&gt;0,I$7&gt;=$E20,I$7&lt;=$F20),"u","")</f>
         <v/>
@@ -5806,7 +5620,9 @@
         <f t="array" ref="G21">IFERROR(_xlfn.IFS($D$4&lt;E21,0,$D$4&gt;F21,1),IFERROR(_xlfn.DAYS($D$4,E21)/_xlfn.DAYS(F21,E21),1))</f>
         <v>1</v>
       </c>
-      <c r="H21" s="8"/>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
       <c r="I21" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -6019,9 +5835,11 @@
       </c>
       <c r="G22" s="8" cm="1">
         <f t="array" ref="G22">IFERROR(_xlfn.IFS($D$4&lt;E22,0,$D$4&gt;F22,1),IFERROR(_xlfn.DAYS($D$4,E22)/_xlfn.DAYS(F22,E22),1))</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H22" s="8">
         <v>0</v>
       </c>
-      <c r="H22" s="8"/>
       <c r="I22" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -6237,7 +6055,9 @@
         <f t="array" ref="G23">IFERROR(_xlfn.IFS($D$4&lt;E23,0,$D$4&gt;F23,1),IFERROR(_xlfn.DAYS($D$4,E23)/_xlfn.DAYS(F23,E23),1))</f>
         <v>0</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="8">
+        <v>0</v>
+      </c>
       <c r="I23" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -6453,7 +6273,9 @@
         <f t="array" ref="G24">IFERROR(_xlfn.IFS($D$4&lt;E24,0,$D$4&gt;F24,1),IFERROR(_xlfn.DAYS($D$4,E24)/_xlfn.DAYS(F24,E24),1))</f>
         <v>0</v>
       </c>
-      <c r="H24" s="8"/>
+      <c r="H24" s="8">
+        <v>0</v>
+      </c>
       <c r="I24" s="7" t="str">
         <f t="shared" ref="I24:AY29" si="33">IF(AND($D24&lt;&gt;0,I$7&gt;=$E24,I$7&lt;=$F24),"u","")</f>
         <v/>
@@ -6672,7 +6494,9 @@
         <f t="array" ref="G25">IFERROR(_xlfn.IFS($D$4&lt;E25,0,$D$4&gt;F25,1),IFERROR(_xlfn.DAYS($D$4,E25)/_xlfn.DAYS(F25,E25),1))</f>
         <v>0</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8">
+        <v>0</v>
+      </c>
       <c r="I25" s="7" t="str">
         <f t="shared" si="28"/>
         <v/>
@@ -6887,7 +6711,9 @@
         <f t="array" ref="G26">IFERROR(_xlfn.IFS($D$4&lt;E26,0,$D$4&gt;F26,1),IFERROR(_xlfn.DAYS($D$4,E26)/_xlfn.DAYS(F26,E26),1))</f>
         <v>0</v>
       </c>
-      <c r="H26" s="8"/>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
       <c r="I26" s="7" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -7057,31 +6883,31 @@
         <v/>
       </c>
       <c r="AY26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,AY$7&gt;=$E26,AY$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="AZ26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,AZ$7&gt;=$E26,AZ$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="BA26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,BA$7&gt;=$E26,BA$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="BB26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,BB$7&gt;=$E26,BB$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="BC26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,BC$7&gt;=$E26,BC$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="BD26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,BD$7&gt;=$E26,BD$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
       <c r="BE26" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D26&lt;&gt;0,BE$7&gt;=$E26,BE$7&lt;=$F26),"u","")</f>
         <v/>
       </c>
     </row>
@@ -7102,7 +6928,9 @@
         <f t="array" ref="G27">IFERROR(_xlfn.IFS($D$4&lt;E27,0,$D$4&gt;F27,1),IFERROR(_xlfn.DAYS($D$4,E27)/_xlfn.DAYS(F27,E27),1))</f>
         <v>0</v>
       </c>
-      <c r="H27" s="8"/>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
       <c r="I27" s="7" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -7272,31 +7100,31 @@
         <v/>
       </c>
       <c r="AY27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,AY$7&gt;=$E27,AY$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="AZ27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,AZ$7&gt;=$E27,AZ$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="BA27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,BA$7&gt;=$E27,BA$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="BB27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,BB$7&gt;=$E27,BB$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="BC27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,BC$7&gt;=$E27,BC$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="BD27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,BD$7&gt;=$E27,BD$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
       <c r="BE27" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D27&lt;&gt;0,BE$7&gt;=$E27,BE$7&lt;=$F27),"u","")</f>
         <v/>
       </c>
     </row>
@@ -7317,7 +7145,9 @@
         <f t="array" ref="G28">IFERROR(_xlfn.IFS($D$4&lt;E28,0,$D$4&gt;F28,1),IFERROR(_xlfn.DAYS($D$4,E28)/_xlfn.DAYS(F28,E28),1))</f>
         <v>0</v>
       </c>
-      <c r="H28" s="8"/>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
       <c r="I28" s="7" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -7487,31 +7317,31 @@
         <v/>
       </c>
       <c r="AY28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,AY$7&gt;=$E28,AY$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="AZ28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,AZ$7&gt;=$E28,AZ$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="BA28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,BA$7&gt;=$E28,BA$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="BB28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,BB$7&gt;=$E28,BB$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="BC28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,BC$7&gt;=$E28,BC$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="BD28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,BD$7&gt;=$E28,BD$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
       <c r="BE28" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D28&lt;&gt;0,BE$7&gt;=$E28,BE$7&lt;=$F28),"u","")</f>
         <v/>
       </c>
     </row>
@@ -7532,7 +7362,9 @@
         <f t="array" ref="G29">IFERROR(_xlfn.IFS($D$4&lt;E29,0,$D$4&gt;F29,1),IFERROR(_xlfn.DAYS($D$4,E29)/_xlfn.DAYS(F29,E29),1))</f>
         <v>0</v>
       </c>
-      <c r="H29" s="8"/>
+      <c r="H29" s="8">
+        <v>0</v>
+      </c>
       <c r="I29" s="7" t="str">
         <f t="shared" si="33"/>
         <v/>
@@ -7678,7 +7510,7 @@
         <v/>
       </c>
       <c r="AS29" s="7" t="str">
-        <f t="shared" ref="AS29:BE29" si="34">IF(AND($D29&lt;&gt;0,AS$7&gt;=$E29,AS$7&lt;=$F29),"u","")</f>
+        <f t="shared" ref="AS29:AX29" si="34">IF(AND($D29&lt;&gt;0,AS$7&gt;=$E29,AS$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="AT29" s="7" t="str">
@@ -7702,31 +7534,31 @@
         <v/>
       </c>
       <c r="AY29" s="7" t="str">
-        <f t="shared" si="29"/>
+        <f>IF(AND($D29&lt;&gt;0,AY$7&gt;=$E29,AY$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="AZ29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,AZ$7&gt;=$E29,AZ$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="BA29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,BA$7&gt;=$E29,BA$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="BB29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,BB$7&gt;=$E29,BB$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="BC29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,BC$7&gt;=$E29,BC$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="BD29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,BD$7&gt;=$E29,BD$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
       <c r="BE29" s="7" t="str">
-        <f t="shared" si="34"/>
+        <f>IF(AND($D29&lt;&gt;0,BE$7&gt;=$E29,BE$7&lt;=$F29),"u","")</f>
         <v/>
       </c>
     </row>
@@ -7747,9 +7579,11 @@
         <f t="array" ref="G30">IFERROR(_xlfn.IFS($D$4&lt;E30,0,$D$4&gt;F30,1),IFERROR(_xlfn.DAYS($D$4,E30)/_xlfn.DAYS(F30,E30),1))</f>
         <v>0</v>
       </c>
-      <c r="H30" s="8"/>
+      <c r="H30" s="8">
+        <v>0</v>
+      </c>
       <c r="I30" s="7" t="str">
-        <f t="shared" ref="I30:BE40" si="35">IF(AND($D30&lt;&gt;0,I$7&gt;=$E30,I$7&lt;=$F30),"u","")</f>
+        <f t="shared" ref="I30:AX30" si="35">IF(AND($D30&lt;&gt;0,I$7&gt;=$E30,I$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="J30" s="7" t="str">
@@ -7917,31 +7751,31 @@
         <v/>
       </c>
       <c r="AY30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,AY$7&gt;=$E30,AY$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="AZ30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,AZ$7&gt;=$E30,AZ$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="BA30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,BA$7&gt;=$E30,BA$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="BB30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,BB$7&gt;=$E30,BB$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="BC30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,BC$7&gt;=$E30,BC$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="BD30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,BD$7&gt;=$E30,BD$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
       <c r="BE30" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D30&lt;&gt;0,BE$7&gt;=$E30,BE$7&lt;=$F30),"u","")</f>
         <v/>
       </c>
     </row>
@@ -7963,7 +7797,9 @@
         <f t="array" ref="G31">IFERROR(_xlfn.IFS($D$4&lt;E31,0,$D$4&gt;F31,1),IFERROR(_xlfn.DAYS($D$4,E31)/_xlfn.DAYS(F31,E31),1))</f>
         <v>0</v>
       </c>
-      <c r="H31" s="8"/>
+      <c r="H31" s="8">
+        <v>0</v>
+      </c>
       <c r="I31" s="7" t="str">
         <f t="shared" ref="I31:AX37" si="36">IF(AND($D31&lt;&gt;0,I$7&gt;=$E31,I$7&lt;=$F31),"u","")</f>
         <v/>
@@ -8133,31 +7969,31 @@
         <v/>
       </c>
       <c r="AY31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,AY$7&gt;=$E31,AY$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="AZ31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,AZ$7&gt;=$E31,AZ$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="BA31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,BA$7&gt;=$E31,BA$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="BB31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,BB$7&gt;=$E31,BB$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="BC31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,BC$7&gt;=$E31,BC$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="BD31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,BD$7&gt;=$E31,BD$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
       <c r="BE31" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D31&lt;&gt;0,BE$7&gt;=$E31,BE$7&lt;=$F31),"u","")</f>
         <v/>
       </c>
     </row>
@@ -8182,7 +8018,9 @@
         <f t="array" ref="G32">IFERROR(_xlfn.IFS($D$4&lt;E32,0,$D$4&gt;F32,1),IFERROR(_xlfn.DAYS($D$4,E32)/_xlfn.DAYS(F32,E32),1))</f>
         <v>0</v>
       </c>
-      <c r="H32" s="8"/>
+      <c r="H32" s="8">
+        <v>0</v>
+      </c>
       <c r="I32" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -8352,31 +8190,31 @@
         <v/>
       </c>
       <c r="AY32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,AY$7&gt;=$E32,AY$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="AZ32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,AZ$7&gt;=$E32,AZ$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="BA32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,BA$7&gt;=$E32,BA$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="BB32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,BB$7&gt;=$E32,BB$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="BC32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,BC$7&gt;=$E32,BC$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="BD32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,BD$7&gt;=$E32,BD$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
       <c r="BE32" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D32&lt;&gt;0,BE$7&gt;=$E32,BE$7&lt;=$F32),"u","")</f>
         <v/>
       </c>
     </row>
@@ -8397,7 +8235,9 @@
         <f t="array" ref="G33">IFERROR(_xlfn.IFS($D$4&lt;E33,0,$D$4&gt;F33,1),IFERROR(_xlfn.DAYS($D$4,E33)/_xlfn.DAYS(F33,E33),1))</f>
         <v>0</v>
       </c>
-      <c r="H33" s="8"/>
+      <c r="H33" s="8">
+        <v>0</v>
+      </c>
       <c r="I33" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -8567,31 +8407,31 @@
         <v/>
       </c>
       <c r="AY33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,AY$7&gt;=$E33,AY$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="AZ33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,AZ$7&gt;=$E33,AZ$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="BA33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,BA$7&gt;=$E33,BA$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="BB33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,BB$7&gt;=$E33,BB$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="BC33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,BC$7&gt;=$E33,BC$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="BD33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,BD$7&gt;=$E33,BD$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
       <c r="BE33" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D33&lt;&gt;0,BE$7&gt;=$E33,BE$7&lt;=$F33),"u","")</f>
         <v/>
       </c>
     </row>
@@ -8612,7 +8452,9 @@
         <f t="array" ref="G34">IFERROR(_xlfn.IFS($D$4&lt;E34,0,$D$4&gt;F34,1),IFERROR(_xlfn.DAYS($D$4,E34)/_xlfn.DAYS(F34,E34),1))</f>
         <v>0</v>
       </c>
-      <c r="H34" s="8"/>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
       <c r="I34" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -8782,31 +8624,31 @@
         <v/>
       </c>
       <c r="AY34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,AY$7&gt;=$E34,AY$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="AZ34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,AZ$7&gt;=$E34,AZ$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="BA34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,BA$7&gt;=$E34,BA$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="BB34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,BB$7&gt;=$E34,BB$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="BC34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,BC$7&gt;=$E34,BC$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="BD34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,BD$7&gt;=$E34,BD$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
       <c r="BE34" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D34&lt;&gt;0,BE$7&gt;=$E34,BE$7&lt;=$F34),"u","")</f>
         <v/>
       </c>
     </row>
@@ -8827,7 +8669,9 @@
         <f t="array" ref="G35">IFERROR(_xlfn.IFS($D$4&lt;E35,0,$D$4&gt;F35,1),IFERROR(_xlfn.DAYS($D$4,E35)/_xlfn.DAYS(F35,E35),1))</f>
         <v>0</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
       <c r="I35" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -8997,31 +8841,31 @@
         <v/>
       </c>
       <c r="AY35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,AY$7&gt;=$E35,AY$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="AZ35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,AZ$7&gt;=$E35,AZ$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="BA35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,BA$7&gt;=$E35,BA$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="BB35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,BB$7&gt;=$E35,BB$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="BC35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,BC$7&gt;=$E35,BC$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="BD35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,BD$7&gt;=$E35,BD$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
       <c r="BE35" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D35&lt;&gt;0,BE$7&gt;=$E35,BE$7&lt;=$F35),"u","")</f>
         <v/>
       </c>
     </row>
@@ -9043,7 +8887,9 @@
         <f t="array" ref="G36">IFERROR(_xlfn.IFS($D$4&lt;E36,0,$D$4&gt;F36,1),IFERROR(_xlfn.DAYS($D$4,E36)/_xlfn.DAYS(F36,E36),1))</f>
         <v>0</v>
       </c>
-      <c r="H36" s="8"/>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
       <c r="I36" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -9213,31 +9059,31 @@
         <v/>
       </c>
       <c r="AY36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,AY$7&gt;=$E36,AY$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
       <c r="AZ36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,AZ$7&gt;=$E36,AZ$7&lt;=$F36),"u","")</f>
         <v>u</v>
       </c>
       <c r="BA36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,BA$7&gt;=$E36,BA$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
       <c r="BB36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,BB$7&gt;=$E36,BB$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
       <c r="BC36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,BC$7&gt;=$E36,BC$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
       <c r="BD36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,BD$7&gt;=$E36,BD$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
       <c r="BE36" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D36&lt;&gt;0,BE$7&gt;=$E36,BE$7&lt;=$F36),"u","")</f>
         <v/>
       </c>
     </row>
@@ -9262,7 +9108,9 @@
         <f t="array" ref="G37">IFERROR(_xlfn.IFS($D$4&lt;E37,0,$D$4&gt;F37,1),IFERROR(_xlfn.DAYS($D$4,E37)/_xlfn.DAYS(F37,E37),1))</f>
         <v>0</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
       <c r="I37" s="7" t="str">
         <f t="shared" si="36"/>
         <v/>
@@ -9276,7 +9124,7 @@
         <v/>
       </c>
       <c r="L37" s="7" t="str">
-        <f t="shared" ref="L37:BE37" si="37">IF(AND($D37&lt;&gt;0,L$7&gt;=$E37,L$7&lt;=$F37),"u","")</f>
+        <f t="shared" ref="L37:AX37" si="37">IF(AND($D37&lt;&gt;0,L$7&gt;=$E37,L$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="M37" s="7" t="str">
@@ -9432,31 +9280,31 @@
         <v/>
       </c>
       <c r="AY37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,AY$7&gt;=$E37,AY$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="AZ37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,AZ$7&gt;=$E37,AZ$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="BA37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,BA$7&gt;=$E37,BA$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="BB37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,BB$7&gt;=$E37,BB$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="BC37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,BC$7&gt;=$E37,BC$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="BD37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,BD$7&gt;=$E37,BD$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
       <c r="BE37" s="7" t="str">
-        <f t="shared" si="37"/>
+        <f>IF(AND($D37&lt;&gt;0,BE$7&gt;=$E37,BE$7&lt;=$F37),"u","")</f>
         <v/>
       </c>
     </row>
@@ -9477,7 +9325,9 @@
         <f t="array" ref="G38">IFERROR(_xlfn.IFS($D$4&lt;E38,0,$D$4&gt;F38,1),IFERROR(_xlfn.DAYS($D$4,E38)/_xlfn.DAYS(F38,E38),1))</f>
         <v>0</v>
       </c>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8">
+        <v>0</v>
+      </c>
       <c r="I38" s="7" t="str">
         <f t="shared" ref="I38:AX40" si="38">IF(AND($D38&lt;&gt;0,I$7&gt;=$E38,I$7&lt;=$F38),"u","")</f>
         <v/>
@@ -9647,31 +9497,31 @@
         <v/>
       </c>
       <c r="AY38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,AY$7&gt;=$E38,AY$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="AZ38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,AZ$7&gt;=$E38,AZ$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="BA38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,BA$7&gt;=$E38,BA$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="BB38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,BB$7&gt;=$E38,BB$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="BC38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,BC$7&gt;=$E38,BC$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="BD38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,BD$7&gt;=$E38,BD$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
       <c r="BE38" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D38&lt;&gt;0,BE$7&gt;=$E38,BE$7&lt;=$F38),"u","")</f>
         <v/>
       </c>
     </row>
@@ -9692,7 +9542,9 @@
         <f t="array" ref="G39">IFERROR(_xlfn.IFS($D$4&lt;E39,0,$D$4&gt;F39,1),IFERROR(_xlfn.DAYS($D$4,E39)/_xlfn.DAYS(F39,E39),1))</f>
         <v>0</v>
       </c>
-      <c r="H39" s="8"/>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
       <c r="I39" s="7" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -9862,31 +9714,31 @@
         <v/>
       </c>
       <c r="AY39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,AY$7&gt;=$E39,AY$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="AZ39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,AZ$7&gt;=$E39,AZ$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="BA39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,BA$7&gt;=$E39,BA$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="BB39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,BB$7&gt;=$E39,BB$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="BC39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,BC$7&gt;=$E39,BC$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="BD39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,BD$7&gt;=$E39,BD$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
       <c r="BE39" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D39&lt;&gt;0,BE$7&gt;=$E39,BE$7&lt;=$F39),"u","")</f>
         <v/>
       </c>
     </row>
@@ -9908,7 +9760,9 @@
         <f t="array" ref="G40">IFERROR(_xlfn.IFS($D$4&lt;E40,0,$D$4&gt;F40,1),IFERROR(_xlfn.DAYS($D$4,E40)/_xlfn.DAYS(F40,E40),1))</f>
         <v>0</v>
       </c>
-      <c r="H40" s="8"/>
+      <c r="H40" s="8">
+        <v>0</v>
+      </c>
       <c r="I40" s="7" t="str">
         <f t="shared" si="38"/>
         <v/>
@@ -10078,31 +9932,31 @@
         <v/>
       </c>
       <c r="AY40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,AY$7&gt;=$E40,AY$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="AZ40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,AZ$7&gt;=$E40,AZ$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="BA40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,BA$7&gt;=$E40,BA$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="BB40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,BB$7&gt;=$E40,BB$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="BC40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,BC$7&gt;=$E40,BC$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="BD40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,BD$7&gt;=$E40,BD$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
       <c r="BE40" s="7" t="str">
-        <f t="shared" si="35"/>
+        <f>IF(AND($D40&lt;&gt;0,BE$7&gt;=$E40,BE$7&lt;=$F40),"u","")</f>
         <v/>
       </c>
     </row>
@@ -10121,6 +9975,118 @@
     <mergeCell ref="AD6:AJ6"/>
     <mergeCell ref="AK6:AQ6"/>
   </mergeCells>
+  <conditionalFormatting sqref="G10:G30">
+    <cfRule type="dataBar" priority="105">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{69F42FFE-203B-4A58-B0B5-4B0E3751D607}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="dataBar" priority="87">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{731E643E-0708-834D-B243-EC9D2A23745C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="dataBar" priority="69">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{778B8E65-5089-3D43-BDA4-3B53897EC607}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33:G36">
+    <cfRule type="dataBar" priority="67">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{12ACC4E4-F152-E54A-89F2-8D114180D18A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="dataBar" priority="45">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{809F391F-496F-A74A-B8E1-EB47EF1E1700}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="dataBar" priority="35">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4B91A899-CCD4-4D48-BB46-FB45D5251D09}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5FA7B951-DEDD-6A46-A503-A733784955F7}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3A021729-4D40-9D49-9017-F064C935342E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H10:H30">
     <cfRule type="dataBar" priority="106">
       <dataBar>
@@ -10131,20 +10097,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{7A48996A-A5F9-47CC-AA31-CE5E278CD1FF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10:G30">
-    <cfRule type="dataBar" priority="105">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{69F42FFE-203B-4A58-B0B5-4B0E3751D607}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10163,20 +10115,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G31">
-    <cfRule type="dataBar" priority="87">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{731E643E-0708-834D-B243-EC9D2A23745C}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H32">
     <cfRule type="dataBar" priority="70">
       <dataBar>
@@ -10187,20 +10125,6 @@
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
           <x14:id>{D9E3FC3F-F5DB-8A43-8D59-E6326A6FC601}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G32">
-    <cfRule type="dataBar" priority="69">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{778B8E65-5089-3D43-BDA4-3B53897EC607}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -10219,20 +10143,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G33:G36">
-    <cfRule type="dataBar" priority="67">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{12ACC4E4-F152-E54A-89F2-8D114180D18A}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H37">
     <cfRule type="dataBar" priority="46">
       <dataBar>
@@ -10245,48 +10155,6 @@
           <x14:id>{66A54954-6AFE-BF4E-8845-1F2DDB550858}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
-    <cfRule type="dataBar" priority="45">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{809F391F-496F-A74A-B8E1-EB47EF1E1700}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10:AX37">
-    <cfRule type="expression" dxfId="130" priority="112">
-      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10&lt;&gt;0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="129" priority="113">
-      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10=0,$D10=0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="128" priority="114">
-      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="115">
-      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10=0,$D10=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY10:BE37">
-    <cfRule type="expression" dxfId="126" priority="41">
-      <formula>AND(AY$7&gt;=$E10,AY$7&lt;=$F10,$B10&lt;&gt;0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="42">
-      <formula>AND(AY$7&gt;=$E10,AY$7&lt;=$F10,$B10=0,$D10=0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="124" priority="43">
-      <formula>AND(AY$7&gt;=$E10,AY$7&lt;=$F10,$B10&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="123" priority="44">
-      <formula>AND(AY$7&gt;=$E10,AY$7&lt;=$F10,$B10=0,$D10=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
@@ -10303,48 +10171,6 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
-    <cfRule type="dataBar" priority="35">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4B91A899-CCD4-4D48-BB46-FB45D5251D09}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:AX38">
-    <cfRule type="expression" dxfId="122" priority="37">
-      <formula>AND(I$7&gt;=$E38,I$7&lt;=$F38,$B38&lt;&gt;0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="38">
-      <formula>AND(I$7&gt;=$E38,I$7&lt;=$F38,$B38=0,$D38=0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="120" priority="39">
-      <formula>AND(I$7&gt;=$E38,I$7&lt;=$F38,$B38&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="40">
-      <formula>AND(I$7&gt;=$E38,I$7&lt;=$F38,$B38=0,$D38=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY38:BE38">
-    <cfRule type="expression" dxfId="118" priority="31">
-      <formula>AND(AY$7&gt;=$E38,AY$7&lt;=$F38,$B38&lt;&gt;0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="117" priority="32">
-      <formula>AND(AY$7&gt;=$E38,AY$7&lt;=$F38,$B38=0,$D38=0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="33">
-      <formula>AND(AY$7&gt;=$E38,AY$7&lt;=$F38,$B38&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="34">
-      <formula>AND(AY$7&gt;=$E38,AY$7&lt;=$F38,$B38=0,$D38=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H39">
     <cfRule type="dataBar" priority="26">
       <dataBar>
@@ -10357,48 +10183,6 @@
           <x14:id>{EDF980F9-9E9E-5948-9E4B-F2686FEF34D5}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
-    <cfRule type="dataBar" priority="25">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5FA7B951-DEDD-6A46-A503-A733784955F7}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I39:AX39">
-    <cfRule type="expression" dxfId="114" priority="27">
-      <formula>AND(I$7&gt;=$E39,I$7&lt;=$F39,$B39&lt;&gt;0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="113" priority="28">
-      <formula>AND(I$7&gt;=$E39,I$7&lt;=$F39,$B39=0,$D39=0,I$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="112" priority="29">
-      <formula>AND(I$7&gt;=$E39,I$7&lt;=$F39,$B39&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="111" priority="30">
-      <formula>AND(I$7&gt;=$E39,I$7&lt;=$F39,$B39=0,$D39=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY39:BE39">
-    <cfRule type="expression" dxfId="110" priority="21">
-      <formula>AND(AY$7&gt;=$E39,AY$7&lt;=$F39,$B39&lt;&gt;0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="109" priority="22">
-      <formula>AND(AY$7&gt;=$E39,AY$7&lt;=$F39,$B39=0,$D39=0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="108" priority="23">
-      <formula>AND(AY$7&gt;=$E39,AY$7&lt;=$F39,$B39&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="107" priority="24">
-      <formula>AND(AY$7&gt;=$E39,AY$7&lt;=$F39,$B39=0,$D39=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
@@ -10415,46 +10199,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
-    <cfRule type="dataBar" priority="5">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="7" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{3A021729-4D40-9D49-9017-F064C935342E}</x14:id>
-        </ext>
-      </extLst>
+  <conditionalFormatting sqref="I10:BE40">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10&lt;&gt;0,I$7&lt;=$D$4)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I40:AX40">
-    <cfRule type="expression" dxfId="106" priority="7">
-      <formula>AND(I$7&gt;=$E40,I$7&lt;=$F40,$B40&lt;&gt;0,I$7&lt;=$D$4)</formula>
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10=0,$D10=0,I$7&lt;=$D$4)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="8">
-      <formula>AND(I$7&gt;=$E40,I$7&lt;=$F40,$B40=0,$D40=0,I$7&lt;=$D$4)</formula>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10&lt;&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="9">
-      <formula>AND(I$7&gt;=$E40,I$7&lt;=$F40,$B40&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="103" priority="10">
-      <formula>AND(I$7&gt;=$E40,I$7&lt;=$F40,$B40=0,$D40=0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AY40:BE40">
-    <cfRule type="expression" dxfId="102" priority="1">
-      <formula>AND(AY$7&gt;=$E40,AY$7&lt;=$F40,$B40&lt;&gt;0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="2">
-      <formula>AND(AY$7&gt;=$E40,AY$7&lt;=$F40,$B40=0,$D40=0,AY$7&lt;=$D$4)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3">
-      <formula>AND(AY$7&gt;=$E40,AY$7&lt;=$F40,$B40&lt;&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4">
-      <formula>AND(AY$7&gt;=$E40,AY$7&lt;=$F40,$B40=0,$D40=0)</formula>
+    <cfRule type="expression" dxfId="0" priority="4">
+      <formula>AND(I$7&gt;=$E10,I$7&lt;=$F10,$B10=0,$D10=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10465,6 +10221,126 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{69F42FFE-203B-4A58-B0B5-4B0E3751D607}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G10:G30</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{731E643E-0708-834D-B243-EC9D2A23745C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{778B8E65-5089-3D43-BDA4-3B53897EC607}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G32</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{12ACC4E4-F152-E54A-89F2-8D114180D18A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G33:G36</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{809F391F-496F-A74A-B8E1-EB47EF1E1700}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G37</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4B91A899-CCD4-4D48-BB46-FB45D5251D09}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G38</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5FA7B951-DEDD-6A46-A503-A733784955F7}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G39</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3A021729-4D40-9D49-9017-F064C935342E}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G40</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7A48996A-A5F9-47CC-AA31-CE5E278CD1FF}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -10479,21 +10355,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H10:H30</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{69F42FFE-203B-4A58-B0B5-4B0E3751D607}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G10:G30</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6A1F82E6-7478-DB4E-9292-B3A6EE604A94}">
@@ -10511,21 +10372,6 @@
           <xm:sqref>H31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{731E643E-0708-834D-B243-EC9D2A23745C}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G31</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D9E3FC3F-F5DB-8A43-8D59-E6326A6FC601}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -10539,21 +10385,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H32</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{778B8E65-5089-3D43-BDA4-3B53897EC607}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G32</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4571A2A6-F803-7246-9704-6735BF2EA8BD}">
@@ -10571,21 +10402,6 @@
           <xm:sqref>H33:H36</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{12ACC4E4-F152-E54A-89F2-8D114180D18A}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G33:G36</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{66A54954-6AFE-BF4E-8845-1F2DDB550858}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -10599,21 +10415,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H37</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{809F391F-496F-A74A-B8E1-EB47EF1E1700}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F854A07E-98FA-334E-A578-776A357A7A7B}">
@@ -10631,21 +10432,6 @@
           <xm:sqref>H38</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4B91A899-CCD4-4D48-BB46-FB45D5251D09}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G38</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{EDF980F9-9E9E-5948-9E4B-F2686FEF34D5}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="num">
@@ -10659,21 +10445,6 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>H39</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5FA7B951-DEDD-6A46-A503-A733784955F7}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G39</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AFA99880-F455-F247-8B55-1832B0283C6E}">
@@ -10690,21 +10461,6 @@
           </x14:cfRule>
           <xm:sqref>H40</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{3A021729-4D40-9D49-9017-F064C935342E}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>G40</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
